--- a/python/configs/业绩技术指标模板.xlsx
+++ b/python/configs/业绩技术指标模板.xlsx
@@ -69,7 +69,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,19 +82,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="MicrosoftYaHei"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -559,137 +546,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -701,15 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -763,25 +741,6 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1049,10 +1008,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD1048576"/>
+      <selection activeCell="A2" sqref="$A2:$XFD130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1102,736 +1061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:11">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" ht="14.25" spans="1:2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" ht="14.25" spans="1:2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" ht="14.25" spans="1:2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" ht="14.25" spans="1:2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" ht="14.25" spans="1:2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" ht="14.25" spans="1:2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" ht="14.25" spans="1:2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" ht="14.25" spans="1:2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" ht="14.25" spans="1:2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" ht="14.25" spans="1:2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" ht="14.25" spans="1:2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" ht="14.25" spans="1:2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" ht="14.25" spans="1:2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" ht="14.25" spans="1:2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" ht="14.25" spans="1:2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" ht="14.25" spans="1:2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" ht="14.25" spans="1:2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" ht="14.25" spans="1:2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" ht="14.25" spans="1:2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" ht="14.25" spans="1:2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" ht="14.25" spans="1:2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" ht="14.25" spans="1:2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" ht="14.25" spans="1:2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" ht="14.25" spans="1:2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" ht="14.25" spans="1:2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="288"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="1" priority="381"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="287"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="380"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="286"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="1" priority="379"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="285"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="1" priority="378"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="0" priority="284"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="1" priority="377"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="0" priority="283"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="1" priority="376"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="0" priority="282"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="1" priority="375"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="0" priority="281"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="duplicateValues" dxfId="1" priority="374"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="0" priority="280"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="1" priority="373"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="0" priority="279"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="1" priority="372"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="0" priority="278"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="1" priority="371"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="0" priority="277"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="1" priority="370"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="0" priority="276"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="1" priority="369"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="0" priority="275"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="1" priority="368"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="0" priority="274"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="1" priority="367"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="0" priority="273"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="1" priority="366"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="0" priority="272"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1" priority="365"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="0" priority="271"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="1" priority="364"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="0" priority="270"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="1" priority="363"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="0" priority="269"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="1" priority="362"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="0" priority="268"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="1" priority="361"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="0" priority="267"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="1" priority="360"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="0" priority="266"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="1" priority="359"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="0" priority="265"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="1" priority="358"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="0" priority="264"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="1" priority="357"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="0" priority="263"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1" priority="356"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="0" priority="262"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="1" priority="355"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="0" priority="261"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="1" priority="354"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="0" priority="260"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="1" priority="353"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="0" priority="259"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="1" priority="352"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="0" priority="258"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="1" priority="351"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="0" priority="257"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="1" priority="350"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="0" priority="256"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="1" priority="349"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="0" priority="255"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="1" priority="348"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="0" priority="254"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="1" priority="347"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="0" priority="253"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="1" priority="346"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="0" priority="252"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="1" priority="345"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="0" priority="251"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="1" priority="344"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="0" priority="250"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="1" priority="343"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="0" priority="249"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="1" priority="342"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="0" priority="248"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="1" priority="341"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="0" priority="247"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1" priority="340"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="0" priority="246"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="1" priority="339"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="0" priority="245"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="1" priority="338"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="0" priority="244"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="duplicateValues" dxfId="1" priority="337"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="0" priority="243"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="1" priority="336"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="0" priority="242"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="1" priority="335"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="0" priority="241"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="1" priority="334"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="0" priority="240"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="1" priority="333"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="0" priority="239"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="duplicateValues" dxfId="1" priority="332"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="0" priority="238"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="duplicateValues" dxfId="1" priority="331"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="0" priority="237"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="1" priority="330"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="0" priority="236"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="duplicateValues" dxfId="1" priority="329"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="duplicateValues" dxfId="0" priority="235"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="1" priority="328"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="duplicateValues" dxfId="0" priority="234"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="duplicateValues" dxfId="1" priority="327"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="0" priority="233"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="duplicateValues" dxfId="1" priority="326"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="0" priority="232"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="duplicateValues" dxfId="1" priority="325"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="0" priority="231"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="duplicateValues" dxfId="1" priority="324"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="0" priority="230"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="duplicateValues" dxfId="1" priority="323"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="duplicateValues" dxfId="0" priority="229"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="duplicateValues" dxfId="1" priority="322"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="0" priority="228"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="1" priority="321"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="0" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="duplicateValues" dxfId="1" priority="320"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="0" priority="226"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="duplicateValues" dxfId="1" priority="319"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="0" priority="225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="duplicateValues" dxfId="1" priority="318"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="0" priority="224"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="duplicateValues" dxfId="1" priority="317"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="0" priority="223"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="duplicateValues" dxfId="1" priority="316"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="0" priority="222"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="1" priority="315"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="1" priority="314"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="1" priority="313"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="0" priority="219"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="1" priority="312"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="0" priority="218"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="1" priority="311"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="0" priority="217"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="1" priority="310"/>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
